--- a/Team-Data/2007-08/4-11-2007-08.xlsx
+++ b/Team-Data/2007-08/4-11-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" t="n">
         <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>0.468</v>
+        <v>0.462</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -684,19 +751,19 @@
         <v>36.2</v>
       </c>
       <c r="J2" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M2" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="N2" t="n">
-        <v>0.36</v>
+        <v>0.356</v>
       </c>
       <c r="O2" t="n">
         <v>21.1</v>
@@ -708,7 +775,7 @@
         <v>0.774</v>
       </c>
       <c r="R2" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S2" t="n">
         <v>30</v>
@@ -717,34 +784,34 @@
         <v>42.3</v>
       </c>
       <c r="U2" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V2" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W2" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X2" t="n">
         <v>5.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.2</v>
+        <v>98</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.4</v>
+        <v>-1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -762,7 +829,7 @@
         <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
         <v>16</v>
@@ -771,10 +838,10 @@
         <v>27</v>
       </c>
       <c r="AM2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
         <v>5</v>
@@ -807,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -848,25 +915,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" t="n">
         <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>0.797</v>
+        <v>0.795</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="K3" t="n">
         <v>0.475</v>
@@ -875,16 +942,16 @@
         <v>7.3</v>
       </c>
       <c r="M3" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.379</v>
+        <v>0.377</v>
       </c>
       <c r="O3" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="P3" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="Q3" t="n">
         <v>0.77</v>
@@ -893,13 +960,13 @@
         <v>10.1</v>
       </c>
       <c r="S3" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T3" t="n">
         <v>42</v>
       </c>
       <c r="U3" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V3" t="n">
         <v>15.3</v>
@@ -917,16 +984,16 @@
         <v>22.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB3" t="n">
         <v>100.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,7 +1008,7 @@
         <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -950,28 +1017,28 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM3" t="n">
         <v>12</v>
       </c>
       <c r="AN3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO3" t="n">
         <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>24</v>
       </c>
       <c r="AS3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT3" t="n">
         <v>14</v>
@@ -998,7 +1065,7 @@
         <v>8</v>
       </c>
       <c r="BB3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>-4.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
         <v>23</v>
@@ -1120,7 +1187,7 @@
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
         <v>25</v>
@@ -1132,22 +1199,22 @@
         <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM4" t="n">
         <v>15</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
         <v>20</v>
       </c>
       <c r="AP4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR4" t="n">
         <v>20</v>
@@ -1159,13 +1226,13 @@
         <v>26</v>
       </c>
       <c r="AU4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX4" t="n">
         <v>14</v>
@@ -1177,7 +1244,7 @@
         <v>21</v>
       </c>
       <c r="BA4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="n">
         <v>48</v>
       </c>
       <c r="G5" t="n">
-        <v>0.392</v>
+        <v>0.385</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
@@ -1230,28 +1297,28 @@
         <v>36.1</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="K5" t="n">
         <v>0.432</v>
       </c>
       <c r="L5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M5" t="n">
         <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O5" t="n">
         <v>18.7</v>
       </c>
       <c r="P5" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R5" t="n">
         <v>12.9</v>
@@ -1266,13 +1333,13 @@
         <v>21.8</v>
       </c>
       <c r="V5" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W5" t="n">
         <v>7.7</v>
       </c>
       <c r="X5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y5" t="n">
         <v>5.7</v>
@@ -1287,10 +1354,10 @@
         <v>96.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.3</v>
+        <v>-3.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1305,7 +1372,7 @@
         <v>13</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1323,16 +1390,16 @@
         <v>14</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ5" t="n">
         <v>17</v>
       </c>
       <c r="AR5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS5" t="n">
         <v>18</v>
@@ -1341,7 +1408,7 @@
         <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
         <v>17</v>
@@ -1362,7 +1429,7 @@
         <v>12</v>
       </c>
       <c r="BB5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" t="n">
         <v>43</v>
       </c>
       <c r="F6" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" t="n">
-        <v>0.544</v>
+        <v>0.551</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
@@ -1427,22 +1494,22 @@
         <v>0.36</v>
       </c>
       <c r="O6" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P6" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.718</v>
+        <v>0.72</v>
       </c>
       <c r="R6" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="S6" t="n">
         <v>31.2</v>
       </c>
       <c r="T6" t="n">
-        <v>44.4</v>
+        <v>44.5</v>
       </c>
       <c r="U6" t="n">
         <v>20.1</v>
@@ -1457,22 +1524,22 @@
         <v>5.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z6" t="n">
         <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB6" t="n">
         <v>96.90000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1487,13 +1554,13 @@
         <v>4</v>
       </c>
       <c r="AI6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
         <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
         <v>14</v>
@@ -1502,13 +1569,13 @@
         <v>13</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
         <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1520,7 +1587,7 @@
         <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
         <v>24</v>
@@ -1532,7 +1599,7 @@
         <v>18</v>
       </c>
       <c r="AX6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
         <v>14</v>
@@ -1541,13 +1608,13 @@
         <v>16</v>
       </c>
       <c r="BA6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB6" t="n">
         <v>18</v>
       </c>
       <c r="BC6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
@@ -1666,7 +1733,7 @@
         <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1684,7 +1751,7 @@
         <v>19</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
         <v>7</v>
@@ -1705,7 +1772,7 @@
         <v>9</v>
       </c>
       <c r="AU7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
@@ -1714,7 +1781,7 @@
         <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY7" t="n">
         <v>7</v>
@@ -1729,7 +1796,7 @@
         <v>13</v>
       </c>
       <c r="BC7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1848,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1866,7 +1933,7 @@
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1890,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1899,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ8" t="n">
         <v>17</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" t="n">
         <v>23</v>
       </c>
       <c r="G9" t="n">
-        <v>0.709</v>
+        <v>0.705</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J9" t="n">
-        <v>79.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L9" t="n">
         <v>6</v>
@@ -1970,13 +2037,13 @@
         <v>16.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O9" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P9" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="Q9" t="n">
         <v>0.765</v>
@@ -1985,10 +2052,10 @@
         <v>11.9</v>
       </c>
       <c r="S9" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="T9" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U9" t="n">
         <v>22.4</v>
@@ -2000,7 +2067,7 @@
         <v>7.2</v>
       </c>
       <c r="X9" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y9" t="n">
         <v>3.9</v>
@@ -2012,13 +2079,13 @@
         <v>19.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2036,22 +2103,22 @@
         <v>18</v>
       </c>
       <c r="AJ9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
       </c>
       <c r="AL9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO9" t="n">
         <v>18</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>19</v>
       </c>
       <c r="AP9" t="n">
         <v>20</v>
@@ -2060,22 +2127,22 @@
         <v>14</v>
       </c>
       <c r="AR9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS9" t="n">
         <v>25</v>
       </c>
       <c r="AT9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX9" t="n">
         <v>3</v>
@@ -2084,16 +2151,16 @@
         <v>3</v>
       </c>
       <c r="AZ9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA9" t="n">
         <v>25</v>
       </c>
       <c r="BB9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>2.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>12</v>
@@ -2212,7 +2279,7 @@
         <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL10" t="n">
         <v>2</v>
@@ -2236,7 +2303,7 @@
         <v>13</v>
       </c>
       <c r="AP10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
         <v>19</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -2304,46 +2371,46 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" t="n">
         <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
       </c>
       <c r="I11" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J11" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M11" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N11" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O11" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P11" t="n">
         <v>22.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.724</v>
+        <v>0.727</v>
       </c>
       <c r="R11" t="n">
         <v>12.2</v>
@@ -2358,7 +2425,7 @@
         <v>21.4</v>
       </c>
       <c r="V11" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W11" t="n">
         <v>7.3</v>
@@ -2379,10 +2446,10 @@
         <v>96.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
@@ -2397,13 +2464,13 @@
         <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
         <v>15</v>
       </c>
       <c r="AK11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
         <v>10</v>
@@ -2421,7 +2488,7 @@
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR11" t="n">
         <v>8</v>
@@ -2442,22 +2509,22 @@
         <v>15</v>
       </c>
       <c r="AX11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY11" t="n">
         <v>12</v>
       </c>
       <c r="AZ11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" t="n">
         <v>44</v>
       </c>
       <c r="G12" t="n">
-        <v>0.443</v>
+        <v>0.436</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
@@ -2513,25 +2580,25 @@
         <v>9.1</v>
       </c>
       <c r="M12" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.371</v>
+        <v>0.373</v>
       </c>
       <c r="O12" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="P12" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R12" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T12" t="n">
         <v>43.2</v>
@@ -2546,7 +2613,7 @@
         <v>7.7</v>
       </c>
       <c r="X12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y12" t="n">
         <v>5.1</v>
@@ -2555,16 +2622,16 @@
         <v>23.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.6</v>
+        <v>103.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.4</v>
+        <v>-1.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2594,16 +2661,16 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
         <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2621,7 +2688,7 @@
         <v>26</v>
       </c>
       <c r="AW12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-7</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2782,7 +2849,7 @@
         <v>6</v>
       </c>
       <c r="AP13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ13" t="n">
         <v>6</v>
@@ -2809,10 +2876,10 @@
         <v>13</v>
       </c>
       <c r="AY13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" t="n">
         <v>25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,37 +2935,37 @@
         <v>39.6</v>
       </c>
       <c r="J14" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K14" t="n">
         <v>0.476</v>
       </c>
       <c r="L14" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.376</v>
+        <v>0.378</v>
       </c>
       <c r="O14" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="P14" t="n">
         <v>27.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R14" t="n">
         <v>10.9</v>
       </c>
       <c r="S14" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T14" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="U14" t="n">
         <v>24.3</v>
@@ -2916,7 +2983,7 @@
         <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA14" t="n">
         <v>22.6</v>
@@ -2931,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="n">
         <v>4</v>
@@ -2940,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2955,10 +3022,10 @@
         <v>5</v>
       </c>
       <c r="AM14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2967,7 +3034,7 @@
         <v>5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR14" t="n">
         <v>19</v>
@@ -2994,7 +3061,7 @@
         <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" t="n">
         <v>57</v>
       </c>
       <c r="G15" t="n">
-        <v>0.278</v>
+        <v>0.269</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
@@ -3062,16 +3129,16 @@
         <v>21.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O15" t="n">
         <v>18.5</v>
       </c>
       <c r="P15" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.728</v>
+        <v>0.73</v>
       </c>
       <c r="R15" t="n">
         <v>10.2</v>
@@ -3080,43 +3147,43 @@
         <v>31.2</v>
       </c>
       <c r="T15" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U15" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="V15" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W15" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y15" t="n">
         <v>4.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
         <v>22.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.9</v>
+        <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
@@ -3137,28 +3204,28 @@
         <v>7</v>
       </c>
       <c r="AM15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
         <v>23</v>
       </c>
       <c r="AR15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS15" t="n">
         <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU15" t="n">
         <v>29</v>
@@ -3170,16 +3237,16 @@
         <v>28</v>
       </c>
       <c r="AX15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY15" t="n">
         <v>18</v>
       </c>
       <c r="AZ15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" t="n">
         <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" t="n">
-        <v>0.177</v>
+        <v>0.179</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3232,67 +3299,67 @@
         <v>34.3</v>
       </c>
       <c r="J16" t="n">
-        <v>77.2</v>
+        <v>77</v>
       </c>
       <c r="K16" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L16" t="n">
         <v>5.8</v>
       </c>
       <c r="M16" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O16" t="n">
         <v>17.1</v>
       </c>
       <c r="P16" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.726</v>
+        <v>0.725</v>
       </c>
       <c r="R16" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="S16" t="n">
         <v>28.6</v>
       </c>
       <c r="T16" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="U16" t="n">
         <v>20</v>
       </c>
       <c r="V16" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W16" t="n">
         <v>7.2</v>
       </c>
       <c r="X16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z16" t="n">
         <v>20.3</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB16" t="n">
         <v>91.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3319,7 +3386,7 @@
         <v>22</v>
       </c>
       <c r="AM16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN16" t="n">
         <v>18</v>
@@ -3331,7 +3398,7 @@
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
@@ -3355,7 +3422,7 @@
         <v>22</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" t="n">
         <v>26</v>
       </c>
       <c r="F17" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" t="n">
-        <v>0.329</v>
+        <v>0.333</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3417,25 +3484,25 @@
         <v>82.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L17" t="n">
         <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O17" t="n">
         <v>17.6</v>
       </c>
       <c r="P17" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.735</v>
+        <v>0.736</v>
       </c>
       <c r="R17" t="n">
         <v>12.9</v>
@@ -3462,19 +3529,19 @@
         <v>5</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="AA17" t="n">
         <v>21</v>
       </c>
       <c r="AB17" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.7</v>
+        <v>-6.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3489,13 +3556,13 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ17" t="n">
         <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL17" t="n">
         <v>24</v>
@@ -3516,7 +3583,7 @@
         <v>21</v>
       </c>
       <c r="AR17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS17" t="n">
         <v>29</v>
@@ -3525,10 +3592,10 @@
         <v>17</v>
       </c>
       <c r="AU17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW17" t="n">
         <v>21</v>
@@ -3537,16 +3604,16 @@
         <v>20</v>
       </c>
       <c r="AY17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BC17" t="n">
         <v>26</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" t="n">
         <v>59</v>
       </c>
       <c r="G18" t="n">
-        <v>0.253</v>
+        <v>0.244</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
@@ -3608,7 +3675,7 @@
         <v>15.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.348</v>
+        <v>0.345</v>
       </c>
       <c r="O18" t="n">
         <v>15.2</v>
@@ -3617,19 +3684,19 @@
         <v>20.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.738</v>
+        <v>0.737</v>
       </c>
       <c r="R18" t="n">
         <v>11.6</v>
       </c>
       <c r="S18" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T18" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U18" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V18" t="n">
         <v>14.6</v>
@@ -3638,7 +3705,7 @@
         <v>7.5</v>
       </c>
       <c r="X18" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y18" t="n">
         <v>5.7</v>
@@ -3650,13 +3717,13 @@
         <v>17.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7.1</v>
+        <v>-7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3677,7 +3744,7 @@
         <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL18" t="n">
         <v>25</v>
@@ -3686,7 +3753,7 @@
         <v>25</v>
       </c>
       <c r="AN18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3713,7 +3780,7 @@
         <v>18</v>
       </c>
       <c r="AW18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3728,7 +3795,7 @@
         <v>30</v>
       </c>
       <c r="BB18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" t="n">
         <v>32</v>
       </c>
       <c r="F19" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" t="n">
-        <v>0.405</v>
+        <v>0.41</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
@@ -3787,19 +3854,19 @@
         <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.345</v>
+        <v>0.348</v>
       </c>
       <c r="O19" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="P19" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="R19" t="n">
         <v>11.4</v>
@@ -3808,7 +3875,7 @@
         <v>30.8</v>
       </c>
       <c r="T19" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U19" t="n">
         <v>23.2</v>
@@ -3823,22 +3890,22 @@
         <v>4.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA19" t="n">
         <v>22.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.3</v>
+        <v>-5</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
@@ -3862,13 +3929,13 @@
         <v>26</v>
       </c>
       <c r="AL19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM19" t="n">
         <v>18</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3898,7 +3965,7 @@
         <v>26</v>
       </c>
       <c r="AX19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY19" t="n">
         <v>10</v>
@@ -3907,7 +3974,7 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" t="n">
         <v>55</v>
       </c>
       <c r="F20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" t="n">
-        <v>0.696</v>
+        <v>0.705</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3972,10 +4039,10 @@
         <v>19.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.392</v>
+        <v>0.391</v>
       </c>
       <c r="O20" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P20" t="n">
         <v>20.7</v>
@@ -3984,13 +4051,13 @@
         <v>0.767</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
         <v>30.4</v>
       </c>
       <c r="T20" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U20" t="n">
         <v>21.8</v>
@@ -4008,7 +4075,7 @@
         <v>4.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA20" t="n">
         <v>19.2</v>
@@ -4017,19 +4084,19 @@
         <v>100.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH20" t="n">
         <v>13</v>
@@ -4038,7 +4105,7 @@
         <v>6</v>
       </c>
       <c r="AJ20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK20" t="n">
         <v>8</v>
@@ -4059,19 +4126,19 @@
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR20" t="n">
         <v>13</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>14</v>
       </c>
       <c r="AS20" t="n">
         <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" t="n">
         <v>23</v>
       </c>
       <c r="F21" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" t="n">
-        <v>0.288</v>
+        <v>0.291</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J21" t="n">
-        <v>82.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0.44</v>
@@ -4154,19 +4221,19 @@
         <v>17.5</v>
       </c>
       <c r="N21" t="n">
-        <v>0.337</v>
+        <v>0.336</v>
       </c>
       <c r="O21" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P21" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.725</v>
+        <v>0.726</v>
       </c>
       <c r="R21" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S21" t="n">
         <v>29.9</v>
@@ -4193,13 +4260,13 @@
         <v>21.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.6</v>
+        <v>-6.5</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -4208,22 +4275,22 @@
         <v>25</v>
       </c>
       <c r="AF21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH21" t="n">
         <v>3</v>
       </c>
       <c r="AI21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
         <v>21</v>
@@ -4235,10 +4302,10 @@
         <v>27</v>
       </c>
       <c r="AO21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ21" t="n">
         <v>25</v>
@@ -4247,7 +4314,7 @@
         <v>6</v>
       </c>
       <c r="AS21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT21" t="n">
         <v>10</v>
@@ -4265,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ21" t="n">
         <v>18</v>
@@ -4274,7 +4341,7 @@
         <v>20</v>
       </c>
       <c r="BB21" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BC21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -4306,22 +4373,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" t="n">
         <v>49</v>
       </c>
       <c r="F22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" t="n">
-        <v>0.62</v>
+        <v>0.628</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J22" t="n">
         <v>78.59999999999999</v>
@@ -4336,25 +4403,25 @@
         <v>25.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.385</v>
+        <v>0.384</v>
       </c>
       <c r="O22" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="P22" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.722</v>
+        <v>0.724</v>
       </c>
       <c r="R22" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S22" t="n">
         <v>32.7</v>
       </c>
       <c r="T22" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U22" t="n">
         <v>20.5</v>
@@ -4372,10 +4439,10 @@
         <v>4.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AB22" t="n">
         <v>104.3</v>
@@ -4384,13 +4451,13 @@
         <v>5</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>10</v>
       </c>
       <c r="AF22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG22" t="n">
         <v>10</v>
@@ -4420,7 +4487,7 @@
         <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ22" t="n">
         <v>27</v>
@@ -4444,13 +4511,13 @@
         <v>27</v>
       </c>
       <c r="AX22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" t="n">
         <v>40</v>
       </c>
       <c r="F23" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" t="n">
-        <v>0.506</v>
+        <v>0.513</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4506,37 +4573,37 @@
         <v>37.2</v>
       </c>
       <c r="J23" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.459</v>
+        <v>0.461</v>
       </c>
       <c r="L23" t="n">
         <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.313</v>
+        <v>0.317</v>
       </c>
       <c r="O23" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="P23" t="n">
         <v>26.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.707</v>
+        <v>0.71</v>
       </c>
       <c r="R23" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S23" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T23" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="U23" t="n">
         <v>20.4</v>
@@ -4545,7 +4612,7 @@
         <v>14.4</v>
       </c>
       <c r="W23" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X23" t="n">
         <v>5</v>
@@ -4554,19 +4621,19 @@
         <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.59999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
         <v>15</v>
@@ -4587,7 +4654,7 @@
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4599,13 +4666,13 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP23" t="n">
         <v>10</v>
       </c>
       <c r="AQ23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR23" t="n">
         <v>2</v>
@@ -4614,31 +4681,31 @@
         <v>28</v>
       </c>
       <c r="AT23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU23" t="n">
         <v>23</v>
       </c>
       <c r="AV23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW23" t="n">
         <v>4</v>
       </c>
       <c r="AX23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ23" t="n">
         <v>7</v>
       </c>
       <c r="BA23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -4670,40 +4737,40 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" t="n">
         <v>53</v>
       </c>
       <c r="F24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G24" t="n">
-        <v>0.663</v>
+        <v>0.671</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="J24" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5</v>
+        <v>0.501</v>
       </c>
       <c r="L24" t="n">
         <v>8.5</v>
       </c>
       <c r="M24" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="N24" t="n">
         <v>0.394</v>
       </c>
       <c r="O24" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P24" t="n">
         <v>23.9</v>
@@ -4721,13 +4788,13 @@
         <v>41.2</v>
       </c>
       <c r="U24" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="V24" t="n">
         <v>14.4</v>
       </c>
       <c r="W24" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X24" t="n">
         <v>6.4</v>
@@ -4742,16 +4809,16 @@
         <v>21</v>
       </c>
       <c r="AB24" t="n">
-        <v>110.1</v>
+        <v>110.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF24" t="n">
         <v>7</v>
@@ -4760,13 +4827,13 @@
         <v>7</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK24" t="n">
         <v>1</v>
@@ -4778,7 +4845,7 @@
         <v>4</v>
       </c>
       <c r="AN24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO24" t="n">
         <v>14</v>
@@ -4802,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="AV24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW24" t="n">
         <v>22</v>
@@ -4814,7 +4881,7 @@
         <v>2</v>
       </c>
       <c r="AZ24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
         <v>15</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" t="n">
         <v>39</v>
       </c>
       <c r="F25" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" t="n">
-        <v>0.494</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
@@ -4882,22 +4949,22 @@
         <v>17.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.374</v>
+        <v>0.377</v>
       </c>
       <c r="O25" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P25" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.769</v>
+        <v>0.771</v>
       </c>
       <c r="R25" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S25" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T25" t="n">
         <v>40.8</v>
@@ -4912,7 +4979,7 @@
         <v>5.5</v>
       </c>
       <c r="X25" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y25" t="n">
         <v>3.7</v>
@@ -4924,22 +4991,22 @@
         <v>20.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>95</v>
+        <v>95.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
         <v>1</v>
@@ -4948,19 +5015,19 @@
         <v>27</v>
       </c>
       <c r="AJ25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
         <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
         <v>24</v>
@@ -4969,7 +5036,7 @@
         <v>25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AR25" t="n">
         <v>18</v>
@@ -4978,7 +5045,7 @@
         <v>22</v>
       </c>
       <c r="AT25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU25" t="n">
         <v>19</v>
@@ -4990,19 +5057,19 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY25" t="n">
         <v>1</v>
       </c>
       <c r="AZ25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
         <v>21</v>
       </c>
       <c r="BB25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -5034,43 +5101,43 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" t="n">
         <v>42</v>
       </c>
       <c r="G26" t="n">
-        <v>0.468</v>
+        <v>0.462</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J26" t="n">
         <v>80</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M26" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="O26" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="P26" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="Q26" t="n">
         <v>0.799</v>
@@ -5100,19 +5167,19 @@
         <v>5.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AB26" t="n">
         <v>102.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.1</v>
+        <v>-2.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5142,25 +5209,25 @@
         <v>20</v>
       </c>
       <c r="AN26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
       </c>
       <c r="AP26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU26" t="n">
         <v>28</v>
@@ -5172,7 +5239,7 @@
         <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY26" t="n">
         <v>27</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" t="n">
         <v>25</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
       </c>
       <c r="I27" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J27" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L27" t="n">
         <v>7.3</v>
@@ -5246,28 +5313,28 @@
         <v>19.7</v>
       </c>
       <c r="N27" t="n">
-        <v>0.369</v>
+        <v>0.371</v>
       </c>
       <c r="O27" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P27" t="n">
         <v>21.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.763</v>
+        <v>0.765</v>
       </c>
       <c r="R27" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S27" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T27" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="U27" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V27" t="n">
         <v>12.7</v>
@@ -5276,13 +5343,13 @@
         <v>6.3</v>
       </c>
       <c r="X27" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y27" t="n">
         <v>4.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA27" t="n">
         <v>19.9</v>
@@ -5291,10 +5358,10 @@
         <v>95.3</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE27" t="n">
         <v>5</v>
@@ -5318,7 +5385,7 @@
         <v>15</v>
       </c>
       <c r="AL27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM27" t="n">
         <v>9</v>
@@ -5327,7 +5394,7 @@
         <v>11</v>
       </c>
       <c r="AO27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP27" t="n">
         <v>27</v>
@@ -5336,16 +5403,16 @@
         <v>15</v>
       </c>
       <c r="AR27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV27" t="n">
         <v>4</v>
@@ -5357,7 +5424,7 @@
         <v>24</v>
       </c>
       <c r="AY27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ27" t="n">
         <v>2</v>
@@ -5369,7 +5436,7 @@
         <v>26</v>
       </c>
       <c r="BC27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" t="n">
         <v>18</v>
       </c>
       <c r="F28" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G28" t="n">
-        <v>0.225</v>
+        <v>0.228</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
@@ -5416,46 +5483,46 @@
         <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>85.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L28" t="n">
         <v>3.9</v>
       </c>
       <c r="M28" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.334</v>
+        <v>0.333</v>
       </c>
       <c r="O28" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P28" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R28" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S28" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T28" t="n">
         <v>44.5</v>
       </c>
       <c r="U28" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V28" t="n">
         <v>16.1</v>
       </c>
       <c r="W28" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X28" t="n">
         <v>4.9</v>
@@ -5467,13 +5534,13 @@
         <v>20.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.2</v>
+        <v>97.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>-9.1</v>
+        <v>-8.9</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -5515,19 +5582,19 @@
         <v>24</v>
       </c>
       <c r="AQ28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR28" t="n">
         <v>10</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>11</v>
       </c>
       <c r="AS28" t="n">
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AV28" t="n">
         <v>30</v>
@@ -5542,13 +5609,13 @@
         <v>26</v>
       </c>
       <c r="AZ28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC28" t="n">
         <v>30</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E29" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" t="n">
         <v>39</v>
       </c>
       <c r="G29" t="n">
-        <v>0.506</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5613,10 +5680,10 @@
         <v>0.394</v>
       </c>
       <c r="O29" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="P29" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="Q29" t="n">
         <v>0.8129999999999999</v>
@@ -5625,10 +5692,10 @@
         <v>9.6</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T29" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="U29" t="n">
         <v>23.8</v>
@@ -5640,7 +5707,7 @@
         <v>6.9</v>
       </c>
       <c r="X29" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y29" t="n">
         <v>4</v>
@@ -5649,25 +5716,25 @@
         <v>19.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH29" t="n">
         <v>8</v>
@@ -5676,22 +5743,22 @@
         <v>7</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK29" t="n">
         <v>7</v>
       </c>
       <c r="AL29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM29" t="n">
         <v>14</v>
       </c>
       <c r="AN29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP29" t="n">
         <v>30</v>
@@ -5700,13 +5767,13 @@
         <v>1</v>
       </c>
       <c r="AR29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS29" t="n">
         <v>14</v>
       </c>
       <c r="AT29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU29" t="n">
         <v>5</v>
@@ -5718,10 +5785,10 @@
         <v>20</v>
       </c>
       <c r="AX29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ29" t="n">
         <v>5</v>
@@ -5730,7 +5797,7 @@
         <v>29</v>
       </c>
       <c r="BB29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -5840,19 +5907,19 @@
         <v>7.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>8</v>
       </c>
       <c r="AF30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG30" t="n">
         <v>8</v>
       </c>
       <c r="AH30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI30" t="n">
         <v>4</v>
@@ -5876,19 +5943,19 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ30" t="n">
         <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS30" t="n">
         <v>26</v>
       </c>
       <c r="AT30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
@@ -5903,7 +5970,7 @@
         <v>23</v>
       </c>
       <c r="AY30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ30" t="n">
         <v>30</v>
@@ -5915,7 +5982,7 @@
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" t="n">
         <v>41</v>
       </c>
       <c r="F31" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" t="n">
-        <v>0.519</v>
+        <v>0.526</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="J31" t="n">
         <v>81.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.445</v>
+        <v>0.448</v>
       </c>
       <c r="L31" t="n">
         <v>6.9</v>
@@ -5974,13 +6041,13 @@
         <v>19.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O31" t="n">
         <v>19.2</v>
       </c>
       <c r="P31" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q31" t="n">
         <v>0.787</v>
@@ -5989,13 +6056,13 @@
         <v>12.1</v>
       </c>
       <c r="S31" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T31" t="n">
         <v>41.3</v>
       </c>
       <c r="U31" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="V31" t="n">
         <v>13.2</v>
@@ -6007,7 +6074,7 @@
         <v>4.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z31" t="n">
         <v>19.6</v>
@@ -6016,13 +6083,13 @@
         <v>20.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.7</v>
+        <v>99</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6037,13 +6104,13 @@
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
         <v>16</v>
       </c>
       <c r="AK31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL31" t="n">
         <v>13</v>
@@ -6052,7 +6119,7 @@
         <v>10</v>
       </c>
       <c r="AN31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6085,7 +6152,7 @@
         <v>15</v>
       </c>
       <c r="AY31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
         <v>6</v>
@@ -6097,7 +6164,7 @@
         <v>14</v>
       </c>
       <c r="BC31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-11-2007-08</t>
+          <t>2008-04-11</t>
         </is>
       </c>
     </row>
